--- a/biology/Biologie cellulaire et moléculaire/Trisomie/Trisomie.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Trisomie/Trisomie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La trisomie est une anomalie chromosomique. 
 C'est un cas particulier d’aneuploïdie. Normalement, les chromosomes vont par paires (23 paires chez l'être humain). Dans le cas d'une trisomie, au moins une des paires est un triplet, d'où le nom de « trisomie ».
@@ -516,36 +528,38 @@
           <t>Trisomies autosomales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La trisomie peut affecter n’importe quel chromosome ; mais la taille du chromosome surnuméraire étant un facteur de risque de fausse couche, on rencontre donc principalement des trisomies 21 qui est le plus petit chromosome humain[1]. Les trisomies 13 et 18 peuvent également aboutir à une naissance à terme d’un enfant vivant mais celui-ci décédera le plus souvent en quelques semaines[2]. Les autres cas ne sont viable qu'en cas de trisomie en mosaïque.
-chromosome 1 : la trisomie 1 en mosaïque est une forme extrêmement rare[3]
-chromosome 2 : la trisomie 2 en mosaïque est une forme rare possédant un phénotype très variable[4]
-chromosome 3 : la trisomie 3 en mosaïque est une forme rare[5]
-chromosome 4 : la trisomie 4 en mosaïque provoque retard de croissance, léger déficit intellectuel, anomalies cardiaques, dysmorphie faciale, malformation du pouce et anomalies cutanées[6]
-chromosome 5 : la trisomie 5 en mosaïque peut être asymptomatique ou provoquer diverses anomalies congénitales[7]
-chromosome 6 : la trisomie 6 en mosaïque est l'une des formes les plus rares (7 cas connus)[8]
-chromosome 7 : la trisomie 7 en mosaïque est une forme rare avec un phénotype très variable[9]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La trisomie peut affecter n’importe quel chromosome ; mais la taille du chromosome surnuméraire étant un facteur de risque de fausse couche, on rencontre donc principalement des trisomies 21 qui est le plus petit chromosome humain. Les trisomies 13 et 18 peuvent également aboutir à une naissance à terme d’un enfant vivant mais celui-ci décédera le plus souvent en quelques semaines. Les autres cas ne sont viable qu'en cas de trisomie en mosaïque.
+chromosome 1 : la trisomie 1 en mosaïque est une forme extrêmement rare
+chromosome 2 : la trisomie 2 en mosaïque est une forme rare possédant un phénotype très variable
+chromosome 3 : la trisomie 3 en mosaïque est une forme rare
+chromosome 4 : la trisomie 4 en mosaïque provoque retard de croissance, léger déficit intellectuel, anomalies cardiaques, dysmorphie faciale, malformation du pouce et anomalies cutanées
+chromosome 5 : la trisomie 5 en mosaïque peut être asymptomatique ou provoquer diverses anomalies congénitales
+chromosome 6 : la trisomie 6 en mosaïque est l'une des formes les plus rares (7 cas connus)
+chromosome 7 : la trisomie 7 en mosaïque est une forme rare avec un phénotype très variable
 chromosome 8 : la trisomie 8 provoque le syndrome de Warkany
-chromosome 9 : la trisomie 9 est extrêmement rare, quelques cas de trisomie complète ont été décrits[10]
-chromosome 10 : la trisomie 10 en mosaïque est généralement fatale dans la petite enfance[11]
-chromosome 11 : la trisomie 11 en mosaïque n'est documentée que dans 3 cas[12]
-chromosome 12 : la trisomie 12 en mosaïque est une forme rare qui peut provoquer diverses anomalies[13]
+chromosome 9 : la trisomie 9 est extrêmement rare, quelques cas de trisomie complète ont été décrits
+chromosome 10 : la trisomie 10 en mosaïque est généralement fatale dans la petite enfance
+chromosome 11 : la trisomie 11 en mosaïque n'est documentée que dans 3 cas
+chromosome 12 : la trisomie 12 en mosaïque est une forme rare qui peut provoquer diverses anomalies
 chromosome 13 : la trisomie 13 provoque le syndrome de Patau
-chromosome 14 : la trisomie 14 en mosaïque est une forme rare avec un phénotype très variable[14]
-chromosome 15 : la trisomie 15 en mosaïque provoque un retard de croissance intra-utérin et des anomalies cardiaques et craniofaciales[15]
-chromosome 16 : la trisomie 16 en mosaïque est une forme rare de phénotype variable[16]
-chromosome 17 : la trisomie 17 en mosaïque est une forme rare, sa présentation clinique est très variable[17]
+chromosome 14 : la trisomie 14 en mosaïque est une forme rare avec un phénotype très variable
+chromosome 15 : la trisomie 15 en mosaïque provoque un retard de croissance intra-utérin et des anomalies cardiaques et craniofaciales
+chromosome 16 : la trisomie 16 en mosaïque est une forme rare de phénotype variable
+chromosome 17 : la trisomie 17 en mosaïque est une forme rare, sa présentation clinique est très variable
 chromosome 18 : la trisomie 18 entraîne le syndrome d'Edwards
-chromosome 19 : la trisomie 19 en mosaïque n'est connue que dans 4 cas[18]
-chromosome 20 : la trisomie 20 en mosaïque est une forme rare généralement asymptomatique[19]
+chromosome 19 : la trisomie 19 en mosaïque n'est connue que dans 4 cas
+chromosome 20 : la trisomie 20 en mosaïque est une forme rare généralement asymptomatique
 chromosome 21 : la trisomie 21 provoque le syndrome de Down
-chromosome 22 : la trisomie 22 en mosaïque est une forme rare qui peut provoquer diverses manifestations[20]
+chromosome 22 : la trisomie 22 en mosaïque est une forme rare qui peut provoquer diverses manifestations
 La formule chromosomique des trisomies homogènes des autosomes est de la forme
 47,Xa,+b avec :
 a : X pour les filles et Y pour les garçons
 b : le numéro du chromosome en excès
-Par exemple 47,XY,+21 pour une trisomie 21 chez un garçon[21].
+Par exemple 47,XY,+21 pour une trisomie 21 chez un garçon.
 Pour les trisomies en mosaïque on ajoute une barre oblique suivie de la formule chromosomique normale, une trisomie 10 en mosaïque sera ainsi désignée par 47,XX,+10/46,XX.
 </t>
         </is>
@@ -575,9 +589,11 @@
           <t>Trisomies des chromosomes sexuels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le pronostic des trisomies gonosomiques est nettement plus favorable[22].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le pronostic des trisomies gonosomiques est nettement plus favorable.
 Trisomie X (syndrome Triple X) : l'individu XXX possède trois chromosomes X. Le chromosome supplémentaire est toujours donné par la mère, et le risque augmente avec l'âge de celle-ci. L'enfant est de sexe féminin. Une fille sur mille est atteinte de cette maladie génétique.
 Le syndrome de Klinefelter : l'individu possède deux chromosomes X et un chromosome Y (XXY). L'enfant est de sexe masculin.
 Le syndrome 47,XYY, ou double Y : l'individu XYY possède alors un chromosome Y en double exemplaire, et un chromosome X (XYY). Le chromosome Y supplémentaire est dû à un problème au cours de la spermatogenèse chez le père. Environ un homme sur 850 développe au moins un spermatozoïde double Y. L'enfant est de sexe masculin.</t>
@@ -608,9 +624,11 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trisomies résultent généralement de la  non-disjonction (d) .  Une non-disjonction peut survenir au cours de la gamétogenèse maternelle ou paternelle (chez l'humain elle est très majoritairement d'origine maternelle[23]).  Il s'agit d'une erreur de division cellulaire dans laquelle il y a un échec d'une paire chromosomique à se disjoindre. Cela entraîne une distribution inégale d'une paire de chromosomes homologues aux cellules filles : la paire chromosomique  passe dans sa totalité à l'une des cellules fille et l'autre cellule fille ne reçoit rien. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trisomies résultent généralement de la  non-disjonction (d) .  Une non-disjonction peut survenir au cours de la gamétogenèse maternelle ou paternelle (chez l'humain elle est très majoritairement d'origine maternelle).  Il s'agit d'une erreur de division cellulaire dans laquelle il y a un échec d'une paire chromosomique à se disjoindre. Cela entraîne une distribution inégale d'une paire de chromosomes homologues aux cellules filles : la paire chromosomique  passe dans sa totalité à l'une des cellules fille et l'autre cellule fille ne reçoit rien. 
 A la fécondation, la cellule possédant une paire chromosomique reçoit un troisième chromosome  provenant de l'autre gamete, devenant ainsi un zygote trisomique (lorsque c'est l'autre cellule fille qui est fécondée, cela provoque une monosomie).
 Quand la  non-disjonction intervient après la fécondation, on obtient une trisomie en mosaïque.
 Il arrive que le zygote trisomique s'auto-répare par la perte d'un des trois chromosomes surnuméraires( réduction de trisomie (d) ) , ce qui peut provoquer une disomie uniparentale quand les deux chromosomes conservés proviennent du même parent.
@@ -642,12 +660,14 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La trisomie affecte un grand nombre de grossesses, le risque augmentant avec l'âge de la mère : 
-d'environ 2 % des grossesses à 25 ans, jusqu'à 35% à  40 ans[24]; la plupart de ces grossesses se termineront par une fausse couche. La trisomie 16 est la plus fréquemment rencontrée, on estime qu'elle toucherait 1 à 1,5% des grossesses[25]. Les trisomies 15 et 22 sont les deux autres formes courantes, elles entrainent également le décès in utero du fœtus atteint[26]. Il est possible que ces résultats soient biaisés par la non-détection de l'échec très précoce de la grossesse pour certaines trisomies; en effet la fréquence relative des trisomies détectées par diagnostic préimplantatoire est plus homogène[27].
-Parmi les grossesses viables; la trisomie la plus fréquente est la trisomie 21 ou syndrome de Down, estimée à 1/800 naissances hors diagnostic prénatal[28]. Les autres trisomies des autosomes sont plus rares : 1/8000 naissances pour la trisomie 18 ; 1/100 000 pour la trisomie 13[29]. Cependant, la plupart des grossesses échouent spontanément : dans 75% des cas pour la trisomie 21 [30] et plus de 95% pour les trisomies 18 et 13[31].
-Les duplications des chromosomes sexuels sont assez fréquentes. La trisomie X affecte 1/1000 des naissances de fille[32] ; le syndrome XXY 1/500 des naissances de garçon[33] et 1/1000 pour la forme XYY[34].
+d'environ 2 % des grossesses à 25 ans, jusqu'à 35% à  40 ans; la plupart de ces grossesses se termineront par une fausse couche. La trisomie 16 est la plus fréquemment rencontrée, on estime qu'elle toucherait 1 à 1,5% des grossesses. Les trisomies 15 et 22 sont les deux autres formes courantes, elles entrainent également le décès in utero du fœtus atteint. Il est possible que ces résultats soient biaisés par la non-détection de l'échec très précoce de la grossesse pour certaines trisomies; en effet la fréquence relative des trisomies détectées par diagnostic préimplantatoire est plus homogène.
+Parmi les grossesses viables; la trisomie la plus fréquente est la trisomie 21 ou syndrome de Down, estimée à 1/800 naissances hors diagnostic prénatal. Les autres trisomies des autosomes sont plus rares : 1/8000 naissances pour la trisomie 18 ; 1/100 000 pour la trisomie 13. Cependant, la plupart des grossesses échouent spontanément : dans 75% des cas pour la trisomie 21  et plus de 95% pour les trisomies 18 et 13.
+Les duplications des chromosomes sexuels sont assez fréquentes. La trisomie X affecte 1/1000 des naissances de fille ; le syndrome XXY 1/500 des naissances de garçon et 1/1000 pour la forme XYY.
 </t>
         </is>
       </c>
@@ -676,11 +696,13 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les enfants trisomiques 13 et 18 ne vivent en général que de quelques jours à quelques semaines en raison de l'importance des malformations associées.
-La trisomie 21 perturbe le développement du cerveau, ce qui provoque des déficits cognitifs et une altération du comportement[35]. Cependant, à force de stimulation, les porteurs de trisomie peuvent se développer tant sur les plans intellectuel et émotionnel que professionnel, même si leur handicap ne leur permettra jamais d'atteindre l'âge mental d'un adulte.
-Les syndromes provoqués par une trisomie des chromosomes sexuels sont moins sévères et sont même souvent asymptomatiques. Ils se manifestent principalement par des problèmes de développement sexuels ou de fertilité. Les mécanismes protecteurs sont vraisemblablement liés à l'inactivation du chromosome X et au faible nombre de gènes portés par le chromosome Y[27].
+La trisomie 21 perturbe le développement du cerveau, ce qui provoque des déficits cognitifs et une altération du comportement. Cependant, à force de stimulation, les porteurs de trisomie peuvent se développer tant sur les plans intellectuel et émotionnel que professionnel, même si leur handicap ne leur permettra jamais d'atteindre l'âge mental d'un adulte.
+Les syndromes provoqués par une trisomie des chromosomes sexuels sont moins sévères et sont même souvent asymptomatiques. Ils se manifestent principalement par des problèmes de développement sexuels ou de fertilité. Les mécanismes protecteurs sont vraisemblablement liés à l'inactivation du chromosome X et au faible nombre de gènes portés par le chromosome Y.
 </t>
         </is>
       </c>
@@ -711,16 +733,18 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Animaux
-La trisomie est rare chez l'animal.
-Chez la drosophile, la trisomie 4 , le plus petit chromosome autosome de l'espèce, produit des adultes viables[36].
-La trisomie 22, analogue à la trisomie 21 humaine, est documentée chez le chimpanzé[37] et d'autres primates
-[38]. On connaît aussi des cas de trisomie 18 chez le macaque[39].
-La trisomie 28 bovine[40] et la trisomie X de la jument[41] sont également documentées.
-La trisomie 16 de la souris est utilisée comme modèle animal pour l'étude du syndrome de Down, mais elle est normalement létale[42].
-Plantes
-Les plantes tolèrent mieux les trisomies. 
-Un exemple typique est la stramoine, dont les 12 chromosomes peuvent être affectés par la trisomie, produisant chacun un plant viable au phénotype caractéristique[36].
+          <t>Animaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La trisomie est rare chez l'animal.
+Chez la drosophile, la trisomie 4 , le plus petit chromosome autosome de l'espèce, produit des adultes viables.
+La trisomie 22, analogue à la trisomie 21 humaine, est documentée chez le chimpanzé et d'autres primates
+. On connaît aussi des cas de trisomie 18 chez le macaque.
+La trisomie 28 bovine et la trisomie X de la jument sont également documentées.
+La trisomie 16 de la souris est utilisée comme modèle animal pour l'étude du syndrome de Down, mais elle est normalement létale.
 </t>
         </is>
       </c>
@@ -746,12 +770,52 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Autres organismes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes tolèrent mieux les trisomies. 
+Un exemple typique est la stramoine, dont les 12 chromosomes peuvent être affectés par la trisomie, produisant chacun un plant viable au phénotype caractéristique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Trisomie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trisomie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Trisomie des cellules cancéreuses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On détecte des cellules aneuploïdes dans de nombreux cancers. On trouve par exemple la trisomie 12 dans la  leucémie lymphoïde chronique[43] et la trisomie 8 dans la leucémie aigüe myéloïde[44].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On détecte des cellules aneuploïdes dans de nombreux cancers. On trouve par exemple la trisomie 12 dans la  leucémie lymphoïde chronique et la trisomie 8 dans la leucémie aigüe myéloïde.
 </t>
         </is>
       </c>
